--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="964" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="255">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t xml:space="preserve">currentlyInThailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentlyInMyanmar</t>
   </si>
   <si>
     <t xml:space="preserve">remittances</t>
@@ -1308,11 +1311,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5505050505051"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3030303030303"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.7474747474747"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,14 +1372,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5858585858586"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6464646464646"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1868686868687"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.2424242424242"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2474747474747"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.520202020202"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8434343434343"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1496,28 +1499,28 @@
   </sheetPr>
   <dimension ref="1:17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.75252525252525"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1464646464646"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3080808080808"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5252525252525"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8484848484848"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.62121212121212"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1060606060606"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.48989898989899"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3434343434343"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9040404040404"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.9949494949495"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3131313131313"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.35353535353535"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1692,12 +1695,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9141414141414"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="30.7323232323232"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.969696969697"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="30.0656565656566"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.030303030303"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2377,20 +2380,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:104"/>
+  <dimension ref="1:105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.6161616161616"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8131313131313"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1868686868687"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2872,11 +2875,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="3" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3032,11 +3035,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C84" s="3" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3193,11 +3196,19 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" s="7" t="s">
+      <c r="B104" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3224,14 +3235,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8131313131313"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.959595959596"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.010101010101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0252525252525"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3239,26 +3250,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="256">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -901,7 +901,10 @@
     <t xml:space="preserve">arrangedContractAfter</t>
   </si>
   <si>
-    <t xml:space="preserve">arrangedTravelDocumentation</t>
+    <t xml:space="preserve">arrangedTravelDocumentationBefore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrangedTravelDocumentationAfter</t>
   </si>
   <si>
     <t xml:space="preserve">arrangedTransportation</t>
@@ -2380,10 +2383,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:105"/>
+  <dimension ref="1:106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2883,11 +2886,11 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="3" t="s">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3043,11 +3046,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" s="3" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3204,11 +3207,19 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C105" s="7" t="s">
+      <c r="B105" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3242,7 +3253,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3250,26 +3261,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="257">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t xml:space="preserve">arrangedTransportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transported</t>
   </si>
   <si>
     <t xml:space="preserve">arrangedAccommodation</t>
@@ -2383,10 +2386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:106"/>
+  <dimension ref="1:107"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2894,11 +2897,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="3" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3054,11 +3057,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="3" t="s">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3215,11 +3218,19 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="7" t="s">
+      <c r="B106" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3264,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3261,26 +3272,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="258">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1121,6 +1121,9 @@
   </si>
   <si>
     <t xml:space="preserve">organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">previousSmugglerOrTransporter</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
@@ -1151,7 +1154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1193,6 +1196,12 @@
       <name val="Myanmar3"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Myanmar3"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1243,7 +1252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1292,6 +1301,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2386,10 +2399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:107"/>
+  <dimension ref="1:109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C112" activeCellId="0" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3231,6 +3244,14 @@
       </c>
       <c r="C107" s="7" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3264,7 +3285,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3272,26 +3293,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="259">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t xml:space="preserve">previousSmugglerOrTransporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smugglerOrTransporterForMigrant</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
@@ -1252,7 +1255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1305,6 +1308,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2399,10 +2406,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:109"/>
+  <dimension ref="1:110"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C112" activeCellId="0" sqref="C112"/>
+      <selection pane="topLeft" activeCell="C114" activeCellId="0" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3252,6 +3259,14 @@
       </c>
       <c r="C109" s="12" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3285,7 +3300,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3293,26 +3308,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="260">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -998,6 +998,9 @@
   </si>
   <si>
     <t xml:space="preserve">causedProblems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intentionallyCausedProblems</t>
   </si>
   <si>
     <t xml:space="preserve">expectationsDestination</t>
@@ -1332,7 +1335,7 @@
   <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="B65:C65 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1393,7 +1396,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B65:C65 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1526,7 +1529,7 @@
   <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="B65:C65 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1716,7 +1719,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="B65:C65 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2406,10 +2409,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:110"/>
+  <dimension ref="1:111"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C114" activeCellId="0" sqref="C114"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2925,11 +2928,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="3" t="s">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3085,11 +3088,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="3" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3246,18 +3249,18 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="7" t="s">
+      <c r="B107" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="12" t="s">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3265,8 +3268,16 @@
       <c r="B110" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="12" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3299,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="B65:C65 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3300,7 +3311,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3308,26 +3319,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="968" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="261">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t xml:space="preserve">firstSuggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstTold</t>
   </si>
   <si>
     <t xml:space="preserve">neededPermission</t>
@@ -1160,7 +1163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1202,12 +1205,6 @@
       <name val="Myanmar3"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Myanmar3"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1258,7 +1255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1307,14 +1304,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1335,16 +1324,16 @@
   <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="B65:C65 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.7474747474747"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,19 +1385,19 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B65:C65 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2474747474747"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8434343434343"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3838383838384"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8484848484848"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9848484848485"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4393939393939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1529,27 +1518,27 @@
   <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="B65:C65 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2272727272727"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.48989898989899"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3434343434343"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9040404040404"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.9949494949495"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3131313131313"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.35353535353535"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.5757575757576"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.959595959596"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.22222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3737373737374"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3737373737374"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3232323232323"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7777777777778"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.08585858585859"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3030303030303"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1719,17 +1708,17 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="B65:C65 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4494949494949"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="30.0656565656566"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.030303030303"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9141414141414"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.979797979798"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.2626262626263"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.9646464646465"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2409,20 +2398,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:111"/>
+  <dimension ref="1:112"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65:C65"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8131313131313"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1868686868687"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.010101010101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.520202020202"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2936,11 +2925,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" s="3" t="s">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3096,11 +3085,11 @@
         <v>229</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="3" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3257,18 +3246,18 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C108" s="7" t="s">
+      <c r="B108" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="12" t="s">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3276,8 +3265,16 @@
       <c r="B111" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="3" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3299,19 +3296,19 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="B65:C65 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.010101010101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0252525252525"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2070707070707"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0909090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3319,26 +3316,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="968" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="964" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="262">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1133,6 +1133,9 @@
   </si>
   <si>
     <t xml:space="preserve">smugglerOrTransporterForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traffickerForMigrant</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
@@ -1329,11 +1332,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1464646464646"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,14 +1393,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3838383838384"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8484848484848"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4393939393939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8484848484848"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3131313131313"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.040404040404"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1523,22 +1526,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.959595959596"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.22222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3737373737374"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3232323232323"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.08585858585859"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6919191919192"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.08585858585859"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8737373737374"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.969696969697"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6565656565657"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2424242424242"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.95454545454546"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1713,12 +1716,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9141414141414"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.2626262626263"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.9646464646465"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.5959595959596"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.030303030303"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2398,20 +2401,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:112"/>
+  <dimension ref="1:114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.010101010101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2070707070707"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9848484848485"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3275,6 +3278,14 @@
       </c>
       <c r="C112" s="7" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3301,14 +3312,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2070707070707"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0909090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4090909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2878787878788"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3316,26 +3327,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="263">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1136,6 +1136,9 @@
   </si>
   <si>
     <t xml:space="preserve">traffickerForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kozelayForMigrant</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
@@ -2401,10 +2404,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:114"/>
+  <dimension ref="1:115"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
+      <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3286,6 +3289,14 @@
       </c>
       <c r="C114" s="7" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3319,7 +3330,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3327,26 +3338,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="968" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="964" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="263">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1133,6 +1133,12 @@
   </si>
   <si>
     <t xml:space="preserve">smugglerOrTransporterForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traffickerForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kwoswungForMigrant</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
@@ -1329,11 +1335,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1464646464646"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,14 +1396,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3838383838384"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8484848484848"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4393939393939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8484848484848"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3131313131313"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.040404040404"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1523,22 +1529,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.959595959596"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.22222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3737373737374"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3232323232323"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.08585858585859"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6919191919192"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.08585858585859"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8737373737374"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.969696969697"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6565656565657"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2424242424242"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.95454545454546"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1713,12 +1719,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9141414141414"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.2626262626263"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.9646464646465"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.5959595959596"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.030303030303"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2398,20 +2404,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:112"/>
+  <dimension ref="1:114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B116" activeCellId="0" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.010101010101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2070707070707"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9848484848485"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3275,6 +3281,22 @@
       </c>
       <c r="C112" s="7" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3301,14 +3323,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2070707070707"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0909090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4090909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2878787878788"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3316,26 +3338,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/ngo/ngo.xlsx
+++ b/tables/actor/forms/ngo/ngo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="964" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="976" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="270">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -311,6 +311,42 @@
     <t xml:space="preserve">Spouse</t>
   </si>
   <si>
+    <t xml:space="preserve">အိမ်ထောင်ဖက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyfriend or Girlfriend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ချစ်သူ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyfriend/Girlfriend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မိဘ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sibling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မောင်နှမအရင်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunt/Uncle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">အဒေါ်</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -319,38 +355,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">အိမ်ထောင်ဖက်</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyfriend or Girlfriend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ချစ်သူ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyfriend/Girlfriend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မိဘ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sibling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မောင်နှမအရင်း</t>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဦးလေး</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Grandparent</t>
@@ -359,6 +374,39 @@
     <t xml:space="preserve">အဖိုးအဖွား</t>
   </si>
   <si>
+    <t xml:space="preserve">Parent-in-law</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ယောက်ကထီး</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ယောက်ခမ</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Extended Family</t>
   </si>
   <si>
@@ -574,10 +622,43 @@
     <t xml:space="preserve">အတူရွေ့ပြောင်းတဲ့ အဖော်</t>
   </si>
   <si>
-    <t xml:space="preserve">Broker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ပွဲစား</t>
+    <t xml:space="preserve">Any type of Agent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ရွေ့ပြောင်းမှုတွင်အကျိုးဆောင်သူအားလုံး </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">အခြား</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖော်ပြရန်</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: Specify</t>
   </si>
   <si>
     <t xml:space="preserve">communicationFrequencies</t>
@@ -1139,6 +1220,9 @@
   </si>
   <si>
     <t xml:space="preserve">kwoswungForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paidLikeYou</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
@@ -1335,11 +1419,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1464646464646"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,14 +1480,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2272727272727"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8484848484848"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3131313131313"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.4494949494949"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.040404040404"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6919191919192"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7828282828283"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2424242424242"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1060606060606"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1529,22 +1611,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6919191919192"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.08585858585859"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8737373737374"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.969696969697"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6565656565657"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2424242424242"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.95454545454546"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.6414141414141"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1565656565657"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68686868686869"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2676767676768"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5858585858586"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4393939393939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.959595959596"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.7020202020202"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1711,20 +1789,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.5959595959596"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.030303030303"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2323232323232"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0151515151515"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.2777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.0757575757576"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.1565656565657"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1856,20 +1934,19 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
@@ -1884,9 +1961,8 @@
       <c r="E13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
         <v>68</v>
       </c>
@@ -1899,9 +1975,8 @@
       <c r="E14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
         <v>68</v>
       </c>
@@ -1914,9 +1989,8 @@
       <c r="E15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
         <v>68</v>
       </c>
@@ -1929,9 +2003,8 @@
       <c r="E16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
         <v>68</v>
       </c>
@@ -1944,9 +2017,8 @@
       <c r="E17" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
         <v>68</v>
       </c>
@@ -1959,9 +2031,8 @@
       <c r="E18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
         <v>68</v>
       </c>
@@ -1974,9 +2045,8 @@
       <c r="E19" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1989,9 +2059,8 @@
       <c r="E20" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
         <v>68</v>
       </c>
@@ -2004,7 +2073,6 @@
       <c r="E21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
@@ -2019,9 +2087,8 @@
       <c r="E22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
         <v>68</v>
       </c>
@@ -2034,9 +2101,8 @@
       <c r="E23" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
         <v>68</v>
       </c>
@@ -2047,41 +2113,38 @@
         <v>95</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
         <v>68</v>
       </c>
@@ -2094,9 +2157,8 @@
       <c r="E27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
         <v>68</v>
       </c>
@@ -2109,7 +2171,6 @@
       <c r="E28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
@@ -2124,7 +2185,6 @@
       <c r="E29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
@@ -2137,256 +2197,300 @@
         <v>108</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="8"/>
+        <v>107</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="9" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="D44" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D50" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E52" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F53" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2404,25 +2508,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:114"/>
+  <dimension ref="1:116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B116" activeCellId="0" sqref="B116"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D118" activeCellId="0" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2070707070707"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6060606060606"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9141414141414"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -2434,13 +2537,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2457,7 +2560,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>48</v>
@@ -2465,34 +2568,34 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,7 +2604,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>58</v>
@@ -2512,12 +2615,12 @@
         <v>44</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>68</v>
@@ -2528,775 +2631,783 @@
         <v>44</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3323,14 +3434,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4090909090909"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2878787878788"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8030303030303"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.4141414141414"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -3338,26 +3448,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
